--- a/config/trading_config/config_product.xlsx
+++ b/config/trading_config/config_product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\config\trading_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BAA14C-2E4D-4FE9-888F-8AE8D160FE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F67814A-F416-4D5E-8F92-7E8C2137CC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="product_detail" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>product_name</t>
   </si>
@@ -150,18 +150,6 @@
   </si>
   <si>
     <t>SLA626</t>
-  </si>
-  <si>
-    <t>a3_top200</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a3_zz2000_top100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a3_zz2000_top100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fm03_zzA500_HB</t>
@@ -519,16 +507,16 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="3" width="20.25" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -562,7 +550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -579,7 +567,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -596,7 +584,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -613,7 +601,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -630,7 +618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -647,7 +635,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -674,19 +662,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -694,20 +682,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -719,18 +699,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="23.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -738,20 +718,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -763,18 +735,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="23.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -782,20 +754,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -810,16 +774,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -827,7 +791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -844,18 +808,18 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="23.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -863,20 +827,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -890,17 +846,17 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -908,21 +864,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -933,19 +884,19 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -953,20 +904,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>36</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config/trading_config/config_product.xlsx
+++ b/config/trading_config/config_product.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\config\trading_config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new\config\trading_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F67814A-F416-4D5E-8F92-7E8C2137CC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828C5AF0-3469-48AD-87D5-C8977F318FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>product_name</t>
   </si>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>SLA626</t>
+  </si>
+  <si>
+    <t>a3_top200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>fm03_zzA500_HB</t>
@@ -774,7 +778,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -866,7 +870,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -887,7 +891,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -905,10 +909,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
     </row>

--- a/config/trading_config/config_product.xlsx
+++ b/config/trading_config/config_product.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new\config\trading_config\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828C5AF0-3469-48AD-87D5-C8977F318FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="product_detail" sheetId="1" r:id="rId1"/>
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>product_name</t>
   </si>
@@ -54,42 +48,84 @@
     <t>other_name</t>
   </si>
   <si>
+    <t>product_code</t>
+  </si>
+  <si>
     <t>宣夜惠盈1号</t>
   </si>
   <si>
     <t>沪深300</t>
   </si>
   <si>
+    <t>股票中性</t>
+  </si>
+  <si>
     <t>宣夜惠盈一号</t>
   </si>
   <si>
+    <t>SGS958</t>
+  </si>
+  <si>
+    <t>高毅振英1号</t>
+  </si>
+  <si>
+    <t>高益振英一号</t>
+  </si>
+  <si>
+    <t>SVU353</t>
+  </si>
+  <si>
+    <t>瑞锐精选</t>
+  </si>
+  <si>
+    <t>绝对中性</t>
+  </si>
+  <si>
+    <t>SNY426</t>
+  </si>
+  <si>
+    <t>瑞锐500指增</t>
+  </si>
+  <si>
     <t>中证500</t>
   </si>
   <si>
     <t>指增</t>
   </si>
   <si>
-    <t>高毅振英1号</t>
-  </si>
-  <si>
-    <t>瑞锐精选</t>
-  </si>
-  <si>
-    <t>瑞锐500指增</t>
-  </si>
-  <si>
     <t>瑞锐500</t>
   </si>
   <si>
+    <t>SSS044</t>
+  </si>
+  <si>
+    <t>念空瑞景39号</t>
+  </si>
+  <si>
+    <t>念觉沪深300</t>
+  </si>
+  <si>
+    <t>STH580</t>
+  </si>
+  <si>
     <t>念空知行4号</t>
   </si>
   <si>
     <t>中证A500</t>
   </si>
   <si>
+    <t>念觉知行4号</t>
+  </si>
+  <si>
+    <t>SST132</t>
+  </si>
+  <si>
     <t>仁睿价值精选1号</t>
   </si>
   <si>
+    <t>SLA626</t>
+  </si>
+  <si>
     <t>score_name</t>
   </si>
   <si>
@@ -102,69 +138,23 @@
     <t>combine_zz500_HB</t>
   </si>
   <si>
-    <t>高益振英一号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>指增</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票中性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝对中性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>念空瑞景39号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>念觉沪深300</t>
-  </si>
-  <si>
-    <t>念觉知行4号</t>
-  </si>
-  <si>
-    <t>product_code</t>
-  </si>
-  <si>
-    <t>SGS958</t>
-  </si>
-  <si>
-    <t>SVU353</t>
-  </si>
-  <si>
-    <t>SNY426</t>
-  </si>
-  <si>
-    <t>SSS044</t>
-  </si>
-  <si>
-    <t>STH580</t>
-  </si>
-  <si>
-    <t>SST132</t>
-  </si>
-  <si>
-    <t>SLA626</t>
+    <t>fm03_zzA500_HB</t>
   </si>
   <si>
     <t>a3_top200</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fm03_zzA500_HB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,44 +163,358 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -218,29 +522,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -498,29 +1088,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.8333333333333" customWidth="1"/>
     <col min="3" max="3" width="20.25" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.8333333333333" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,137 +1123,137 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -672,36 +1261,36 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -709,35 +1298,35 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.58203125" customWidth="1"/>
+    <col min="1" max="1" width="23.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -745,72 +1334,72 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.58203125" customWidth="1"/>
+    <col min="1" max="1" width="23.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -818,35 +1407,35 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.58203125" customWidth="1"/>
+    <col min="1" max="1" width="23.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -854,61 +1443,61 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -917,7 +1506,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>